--- a/db/championID.xlsx
+++ b/db/championID.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="437">
   <si>
     <t>id</t>
   </si>
@@ -1295,17 +1295,48 @@
   </si>
   <si>
     <t>핏빛 항구의 학살자</t>
+  </si>
+  <si>
+    <t>name_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트위스티드페이트</t>
+  </si>
+  <si>
+    <t>신짜오</t>
+  </si>
+  <si>
+    <t>마스터이</t>
+  </si>
+  <si>
+    <t>미스포츈</t>
+  </si>
+  <si>
+    <t>문도박사</t>
+  </si>
+  <si>
+    <t>자르반4세</t>
+  </si>
+  <si>
+    <t>리신</t>
+  </si>
+  <si>
+    <t>아우렐리온솔</t>
+  </si>
+  <si>
+    <t>탐켄치</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1313,8 +1344,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1360,15 +1398,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1442,6 +1485,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1476,6 +1520,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1651,14 +1696,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D142"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1671,8 +1718,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1685,8 +1735,11 @@
       <c r="D2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1699,8 +1752,11 @@
       <c r="D3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1713,8 +1769,11 @@
       <c r="D4" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1727,8 +1786,11 @@
       <c r="D5" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1741,8 +1803,11 @@
       <c r="D6" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1755,8 +1820,11 @@
       <c r="D7" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1769,8 +1837,11 @@
       <c r="D8" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1783,8 +1854,11 @@
       <c r="D9" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1797,8 +1871,11 @@
       <c r="D10" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1811,8 +1888,11 @@
       <c r="D11" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1825,8 +1905,11 @@
       <c r="D12" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1839,8 +1922,11 @@
       <c r="D13" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1853,8 +1939,11 @@
       <c r="D14" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1867,8 +1956,11 @@
       <c r="D15" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1881,8 +1973,11 @@
       <c r="D16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1895,8 +1990,11 @@
       <c r="D17" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1909,8 +2007,11 @@
       <c r="D18" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1923,8 +2024,11 @@
       <c r="D19" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1937,8 +2041,11 @@
       <c r="D20" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1951,8 +2058,11 @@
       <c r="D21" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1965,8 +2075,11 @@
       <c r="D22" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1979,8 +2092,11 @@
       <c r="D23" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1993,8 +2109,11 @@
       <c r="D24" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2007,8 +2126,11 @@
       <c r="D25" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2021,8 +2143,11 @@
       <c r="D26" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2035,8 +2160,11 @@
       <c r="D27" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2049,8 +2177,11 @@
       <c r="D28" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2063,8 +2194,11 @@
       <c r="D29" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2077,8 +2211,11 @@
       <c r="D30" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2091,8 +2228,11 @@
       <c r="D31" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2105,8 +2245,11 @@
       <c r="D32" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2119,8 +2262,11 @@
       <c r="D33" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2133,8 +2279,11 @@
       <c r="D34" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2147,8 +2296,11 @@
       <c r="D35" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2161,8 +2313,11 @@
       <c r="D36" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2175,8 +2330,11 @@
       <c r="D37" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2189,8 +2347,11 @@
       <c r="D38" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2203,8 +2364,11 @@
       <c r="D39" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2217,8 +2381,11 @@
       <c r="D40" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2231,8 +2398,11 @@
       <c r="D41" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2245,8 +2415,11 @@
       <c r="D42" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2259,8 +2432,11 @@
       <c r="D43" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2273,8 +2449,11 @@
       <c r="D44" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2287,8 +2466,11 @@
       <c r="D45" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2301,8 +2483,11 @@
       <c r="D46" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>48</v>
       </c>
@@ -2315,8 +2500,11 @@
       <c r="D47" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>50</v>
       </c>
@@ -2329,8 +2517,11 @@
       <c r="D48" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>51</v>
       </c>
@@ -2343,8 +2534,11 @@
       <c r="D49" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>53</v>
       </c>
@@ -2357,8 +2551,11 @@
       <c r="D50" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>54</v>
       </c>
@@ -2371,8 +2568,11 @@
       <c r="D51" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>55</v>
       </c>
@@ -2385,8 +2585,11 @@
       <c r="D52" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>56</v>
       </c>
@@ -2399,8 +2602,11 @@
       <c r="D53" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>57</v>
       </c>
@@ -2413,8 +2619,11 @@
       <c r="D54" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>58</v>
       </c>
@@ -2427,8 +2636,11 @@
       <c r="D55" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>59</v>
       </c>
@@ -2441,8 +2653,11 @@
       <c r="D56" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>60</v>
       </c>
@@ -2455,8 +2670,11 @@
       <c r="D57" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>61</v>
       </c>
@@ -2469,8 +2687,11 @@
       <c r="D58" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>62</v>
       </c>
@@ -2483,8 +2704,11 @@
       <c r="D59" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>63</v>
       </c>
@@ -2497,8 +2721,11 @@
       <c r="D60" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>64</v>
       </c>
@@ -2511,8 +2738,11 @@
       <c r="D61" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>67</v>
       </c>
@@ -2525,8 +2755,11 @@
       <c r="D62" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>68</v>
       </c>
@@ -2539,8 +2772,11 @@
       <c r="D63" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>69</v>
       </c>
@@ -2553,8 +2789,11 @@
       <c r="D64" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>72</v>
       </c>
@@ -2567,8 +2806,11 @@
       <c r="D65" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>74</v>
       </c>
@@ -2581,8 +2823,11 @@
       <c r="D66" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>75</v>
       </c>
@@ -2595,8 +2840,11 @@
       <c r="D67" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>76</v>
       </c>
@@ -2609,8 +2857,11 @@
       <c r="D68" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>77</v>
       </c>
@@ -2623,8 +2874,11 @@
       <c r="D69" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>78</v>
       </c>
@@ -2637,8 +2891,11 @@
       <c r="D70" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>79</v>
       </c>
@@ -2651,8 +2908,11 @@
       <c r="D71" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>80</v>
       </c>
@@ -2665,8 +2925,11 @@
       <c r="D72" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>81</v>
       </c>
@@ -2679,8 +2942,11 @@
       <c r="D73" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>82</v>
       </c>
@@ -2693,8 +2959,11 @@
       <c r="D74" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>83</v>
       </c>
@@ -2707,8 +2976,11 @@
       <c r="D75" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>84</v>
       </c>
@@ -2721,8 +2993,11 @@
       <c r="D76" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>85</v>
       </c>
@@ -2735,8 +3010,11 @@
       <c r="D77" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>86</v>
       </c>
@@ -2749,8 +3027,11 @@
       <c r="D78" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>89</v>
       </c>
@@ -2763,8 +3044,11 @@
       <c r="D79" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>90</v>
       </c>
@@ -2777,8 +3061,11 @@
       <c r="D80" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>91</v>
       </c>
@@ -2791,8 +3078,11 @@
       <c r="D81" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>92</v>
       </c>
@@ -2805,8 +3095,11 @@
       <c r="D82" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>96</v>
       </c>
@@ -2819,8 +3112,11 @@
       <c r="D83" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>98</v>
       </c>
@@ -2833,8 +3129,11 @@
       <c r="D84" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>99</v>
       </c>
@@ -2847,8 +3146,11 @@
       <c r="D85" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>101</v>
       </c>
@@ -2861,8 +3163,11 @@
       <c r="D86" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>102</v>
       </c>
@@ -2875,8 +3180,11 @@
       <c r="D87" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>103</v>
       </c>
@@ -2889,8 +3197,11 @@
       <c r="D88" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>104</v>
       </c>
@@ -2903,8 +3214,11 @@
       <c r="D89" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>105</v>
       </c>
@@ -2917,8 +3231,11 @@
       <c r="D90" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>106</v>
       </c>
@@ -2931,8 +3248,11 @@
       <c r="D91" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>107</v>
       </c>
@@ -2945,8 +3265,11 @@
       <c r="D92" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>110</v>
       </c>
@@ -2959,8 +3282,11 @@
       <c r="D93" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>111</v>
       </c>
@@ -2973,8 +3299,11 @@
       <c r="D94" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>112</v>
       </c>
@@ -2987,8 +3316,11 @@
       <c r="D95" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>113</v>
       </c>
@@ -3001,8 +3333,11 @@
       <c r="D96" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>114</v>
       </c>
@@ -3015,8 +3350,11 @@
       <c r="D97" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>115</v>
       </c>
@@ -3029,8 +3367,11 @@
       <c r="D98" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>117</v>
       </c>
@@ -3043,8 +3384,11 @@
       <c r="D99" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>119</v>
       </c>
@@ -3057,8 +3401,11 @@
       <c r="D100" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>120</v>
       </c>
@@ -3071,8 +3418,11 @@
       <c r="D101" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>121</v>
       </c>
@@ -3085,8 +3435,11 @@
       <c r="D102" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>122</v>
       </c>
@@ -3099,8 +3452,11 @@
       <c r="D103" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>126</v>
       </c>
@@ -3113,8 +3469,11 @@
       <c r="D104" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>127</v>
       </c>
@@ -3127,8 +3486,11 @@
       <c r="D105" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>131</v>
       </c>
@@ -3141,8 +3503,11 @@
       <c r="D106" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>133</v>
       </c>
@@ -3155,8 +3520,11 @@
       <c r="D107" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>134</v>
       </c>
@@ -3169,8 +3537,11 @@
       <c r="D108" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>136</v>
       </c>
@@ -3183,8 +3554,11 @@
       <c r="D109" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>141</v>
       </c>
@@ -3197,8 +3571,11 @@
       <c r="D110" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>142</v>
       </c>
@@ -3211,8 +3588,11 @@
       <c r="D111" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>143</v>
       </c>
@@ -3225,8 +3605,11 @@
       <c r="D112" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>145</v>
       </c>
@@ -3239,8 +3622,11 @@
       <c r="D113" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>150</v>
       </c>
@@ -3253,8 +3639,11 @@
       <c r="D114" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>154</v>
       </c>
@@ -3267,8 +3656,11 @@
       <c r="D115" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>157</v>
       </c>
@@ -3281,8 +3673,11 @@
       <c r="D116" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>161</v>
       </c>
@@ -3295,8 +3690,11 @@
       <c r="D117" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>163</v>
       </c>
@@ -3309,8 +3707,11 @@
       <c r="D118" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>164</v>
       </c>
@@ -3323,8 +3724,11 @@
       <c r="D119" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>201</v>
       </c>
@@ -3337,8 +3741,11 @@
       <c r="D120" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>202</v>
       </c>
@@ -3351,8 +3758,11 @@
       <c r="D121" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>203</v>
       </c>
@@ -3365,8 +3775,11 @@
       <c r="D122" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>222</v>
       </c>
@@ -3379,8 +3792,11 @@
       <c r="D123" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>223</v>
       </c>
@@ -3393,8 +3809,11 @@
       <c r="D124" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>236</v>
       </c>
@@ -3407,8 +3826,11 @@
       <c r="D125" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>238</v>
       </c>
@@ -3421,8 +3843,11 @@
       <c r="D126" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>240</v>
       </c>
@@ -3435,8 +3860,11 @@
       <c r="D127" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>245</v>
       </c>
@@ -3449,8 +3877,11 @@
       <c r="D128" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>254</v>
       </c>
@@ -3463,8 +3894,11 @@
       <c r="D129" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>266</v>
       </c>
@@ -3477,8 +3911,11 @@
       <c r="D130" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>267</v>
       </c>
@@ -3491,8 +3928,11 @@
       <c r="D131" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="E131" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>268</v>
       </c>
@@ -3505,8 +3945,11 @@
       <c r="D132" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>412</v>
       </c>
@@ -3519,8 +3962,11 @@
       <c r="D133" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="E133" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>420</v>
       </c>
@@ -3533,8 +3979,11 @@
       <c r="D134" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>421</v>
       </c>
@@ -3547,8 +3996,11 @@
       <c r="D135" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>427</v>
       </c>
@@ -3561,8 +4013,11 @@
       <c r="D136" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>429</v>
       </c>
@@ -3575,8 +4030,11 @@
       <c r="D137" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>432</v>
       </c>
@@ -3589,8 +4047,11 @@
       <c r="D138" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="E138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>497</v>
       </c>
@@ -3603,8 +4064,11 @@
       <c r="D139" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="E139" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>498</v>
       </c>
@@ -3617,8 +4081,11 @@
       <c r="D140" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="E140" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>516</v>
       </c>
@@ -3631,8 +4098,11 @@
       <c r="D141" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="E141" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>555</v>
       </c>
@@ -3645,8 +4115,13 @@
       <c r="D142" t="s">
         <v>426</v>
       </c>
+      <c r="E142" t="s">
+        <v>285</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>